--- a/tests/testSubmission.xlsx
+++ b/tests/testSubmission.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>I25.11</t>
   </si>
@@ -691,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
         <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,6 +843,17 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
       </c>
     </row>
